--- a/routes/SDDP/inputSheets/CPP&EPP.xlsx
+++ b/routes/SDDP/inputSheets/CPP&EPP.xlsx
@@ -5,81 +5,82 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="VOM_Local" sheetId="1" r:id="rId1"/>
-    <sheet name="VOM_Foreign" sheetId="2" r:id="rId2"/>
-    <sheet name="WaterCharges" sheetId="3" r:id="rId3"/>
-    <sheet name="LimeStoneCharges" sheetId="4" r:id="rId4"/>
-    <sheet name="AshDisposalCost" sheetId="5" r:id="rId5"/>
-    <sheet name="EscalableComponent" sheetId="6" r:id="rId6"/>
-    <sheet name="NonEscalableComponentForeign" sheetId="7" r:id="rId7"/>
-    <sheet name="NonEscalableComponentLocal" sheetId="8" r:id="rId8"/>
-    <sheet name="FOMLocal" sheetId="9" r:id="rId9"/>
-    <sheet name="FOMForeign" sheetId="10" r:id="rId10"/>
-    <sheet name="Insurance" sheetId="11" r:id="rId11"/>
-    <sheet name="FixedCostOfWorkingCapital" sheetId="12" r:id="rId12"/>
-    <sheet name="ROE" sheetId="13" r:id="rId13"/>
-    <sheet name="ROEDC" sheetId="14" r:id="rId14"/>
-    <sheet name="ProceedFromCRES" sheetId="15" r:id="rId15"/>
-    <sheet name="WHT" sheetId="16" r:id="rId16"/>
-    <sheet name="DSRACost" sheetId="17" r:id="rId17"/>
-    <sheet name="FixedFCC" sheetId="18" r:id="rId18"/>
-    <sheet name="AnnualSecurityCost" sheetId="19" r:id="rId19"/>
-    <sheet name="Sinosure" sheetId="20" r:id="rId20"/>
-    <sheet name="InterestRateRMB" sheetId="21" r:id="rId21"/>
-    <sheet name="RepaymentRMB" sheetId="22" r:id="rId22"/>
-    <sheet name="IRSACharges" sheetId="23" r:id="rId23"/>
-    <sheet name="VariableRate" sheetId="24" r:id="rId24"/>
-    <sheet name="InterestForeignAnnual" sheetId="25" r:id="rId25"/>
-    <sheet name="InterestLocalAnnual" sheetId="26" r:id="rId26"/>
-    <sheet name="FixedCostJetty" sheetId="27" r:id="rId27"/>
-    <sheet name="VariableCostJetty" sheetId="28" r:id="rId28"/>
-    <sheet name="FixedRate" sheetId="29" r:id="rId29"/>
-    <sheet name="InterestChargesForeign" sheetId="30" r:id="rId30"/>
-    <sheet name="InterestChargesKibor" sheetId="31" r:id="rId31"/>
+    <sheet name="fcc" sheetId="1" r:id="rId1"/>
+    <sheet name="InterestChargesKibor" sheetId="2" r:id="rId2"/>
+    <sheet name="vom_local" sheetId="3" r:id="rId3"/>
+    <sheet name="vom_foreign" sheetId="4" r:id="rId4"/>
+    <sheet name="watercharges" sheetId="5" r:id="rId5"/>
+    <sheet name="limestonecharges" sheetId="6" r:id="rId6"/>
+    <sheet name="ashdisposalcost" sheetId="7" r:id="rId7"/>
+    <sheet name="escalablecomponent" sheetId="8" r:id="rId8"/>
+    <sheet name="nonescalablecomponentforeign" sheetId="9" r:id="rId9"/>
+    <sheet name="nonescalablecomponentlocal" sheetId="10" r:id="rId10"/>
+    <sheet name="FOMLocal" sheetId="11" r:id="rId11"/>
+    <sheet name="fomforeign" sheetId="12" r:id="rId12"/>
+    <sheet name="insurance" sheetId="13" r:id="rId13"/>
+    <sheet name="fixedcostofworkingcapital" sheetId="14" r:id="rId14"/>
+    <sheet name="roe" sheetId="15" r:id="rId15"/>
+    <sheet name="ROEDC" sheetId="16" r:id="rId16"/>
+    <sheet name="ProceedFromCRES" sheetId="17" r:id="rId17"/>
+    <sheet name="WHT" sheetId="18" r:id="rId18"/>
+    <sheet name="DSRACost" sheetId="19" r:id="rId19"/>
+    <sheet name="FixedFCC" sheetId="20" r:id="rId20"/>
+    <sheet name="AnnualSecurityCost" sheetId="21" r:id="rId21"/>
+    <sheet name="Sinosure" sheetId="22" r:id="rId22"/>
+    <sheet name="InterestRateRMB" sheetId="23" r:id="rId23"/>
+    <sheet name="RepaymentRMB" sheetId="24" r:id="rId24"/>
+    <sheet name="IRSACharges" sheetId="25" r:id="rId25"/>
+    <sheet name="VariableRate" sheetId="26" r:id="rId26"/>
+    <sheet name="InterestForeignAnnual" sheetId="27" r:id="rId27"/>
+    <sheet name="InterestLocalAnnual" sheetId="28" r:id="rId28"/>
+    <sheet name="FixedCostJetty" sheetId="29" r:id="rId29"/>
+    <sheet name="VariableCostJetty" sheetId="30" r:id="rId30"/>
+    <sheet name="FixedRate" sheetId="31" r:id="rId31"/>
+    <sheet name="InterestChargesForeign" sheetId="32" r:id="rId32"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>Tue Aug 18 2020 05:00:00 GMT+0500 (Pakistan Standard Time)</t>
+    <t>Mon Aug 18 2014 21:11:54 GMT+0500 (Pakistan Standard Time)</t>
   </si>
   <si>
     <t>AES PAK GEN</t>
   </si>
   <si>
-    <t>0</t>
+    <t/>
   </si>
   <si>
     <t>dollar_parity</t>
   </si>
   <si>
-    <t>52</t>
+    <t>12</t>
   </si>
   <si>
     <t>us_cpi</t>
   </si>
   <si>
-    <t>132</t>
+    <t>23</t>
   </si>
   <si>
     <t>local_cpi</t>
   </si>
   <si>
-    <t>1</t>
+    <t>134</t>
   </si>
   <si>
     <t>kibor</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>libor</t>
   </si>
   <si>
     <t>sinsoure_fee</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>AES LALPIR</t>
@@ -94,46 +95,7 @@
     <t>FAUJI_KBRWL</t>
   </si>
   <si>
-    <t>0.051948051948051945</t>
-  </si>
-  <si>
-    <t>0.1812987012987013</t>
-  </si>
-  <si>
-    <t>0.15238095238095237</t>
-  </si>
-  <si>
-    <t>0.22787878787878788</t>
-  </si>
-  <si>
-    <t>0.32513759667617</t>
-  </si>
-  <si>
-    <t>0.2581960251401393</t>
-  </si>
-  <si>
-    <t>0.2729498848793923</t>
-  </si>
-  <si>
-    <t>0.2708669343307825</t>
-  </si>
-  <si>
-    <t>0.0060</t>
-  </si>
-  <si>
-    <t>0.0055</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>0.1486</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>1.7316017316017316</t>
+    <t>Thu Sep 18 2014 21:11:54 GMT+0500 (Pakistan Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -173,107 +135,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -284,107 +285,146 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -395,108 +435,147 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -506,108 +585,147 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,107 +735,146 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -728,107 +885,146 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -839,108 +1035,147 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -950,107 +1185,146 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1061,108 +1335,147 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1172,108 +1485,147 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1283,107 +1635,146 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1394,108 +1785,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1505,108 +1935,147 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1616,108 +2085,147 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1727,107 +2235,146 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1838,108 +2385,147 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1949,107 +2535,146 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2060,107 +2685,146 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2171,107 +2835,146 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2282,107 +2985,146 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2393,107 +3135,146 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2504,108 +3285,147 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2615,107 +3435,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2726,108 +3585,147 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2837,108 +3735,297 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2948,107 +4035,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3059,107 +4185,146 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3170,108 +4335,147 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3281,107 +4485,146 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3392,108 +4635,147 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3503,107 +4785,146 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>2</v>
       </c>
     </row>
